--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2586.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2586.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8179652889957757</v>
+        <v>1.734869837760925</v>
       </c>
       <c r="B1">
-        <v>1.325296707231338</v>
+        <v>5.120697975158691</v>
       </c>
       <c r="C1">
-        <v>3.415230896863102</v>
+        <v>4.062240123748779</v>
       </c>
       <c r="D1">
-        <v>2.293314412306526</v>
+        <v>0.980292797088623</v>
       </c>
       <c r="E1">
-        <v>0.9793012241502524</v>
+        <v>0.5987050533294678</v>
       </c>
     </row>
   </sheetData>
